--- a/biology/Botanique/Euodia/Euodia.xlsx
+++ b/biology/Botanique/Euodia/Euodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euodia  est un genre de 7 espèces d'arbres de la famille des Rutaceae, originaire d'Asie, du Nord-Est de l'Australie, de la Nouvelle-Guinée et des îles du Sud-Ouest du Pacifique. Le genre est souvent confondu avec les genres Tetradium et Melicope.
 Le genre doit son nom au mot grec εὐωδία, euôdia signifiant « bonne odeur » car sa feuille froissée sent bon.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Euodia elleryana
 Euodia hortensis J.R.Forst. &amp; G.Forst.
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres d'ornement à croissance moyenne appréciés pour leur feuillage penné. Ils donnent des fleurs mellifères attirant un grand nombre d'abeilles et donc très utiles aux apiculteurs comme source de miel tardif d'été.
 Les Euodia peuvent mesurer jusqu'à 15 mètres. Ils sont assez rustiques et peuvent se cultiver jusqu'en zone USDA 8 (il supporte le froid jusqu'à -12°).
@@ -582,7 +598,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Evodia Lam. (orthographe alternative).</t>
         </is>
